--- a/trunk/doc/SondageCharte.xlsx
+++ b/trunk/doc/SondageCharte.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>Quentin</t>
   </si>
@@ -216,6 +216,27 @@
   </si>
   <si>
     <t>Pas encore</t>
+  </si>
+  <si>
+    <t>josef, pas tres important je pense</t>
+  </si>
+  <si>
+    <t>2 (4 c'est pas si mal je pense)</t>
+  </si>
+  <si>
+    <t>1 !!</t>
+  </si>
+  <si>
+    <t>Français !</t>
+  </si>
+  <si>
+    <t>3 (pour respecter la norme ansi de mes 2 …</t>
+  </si>
+  <si>
+    <t>oui tout au debut</t>
+  </si>
+  <si>
+    <t>Dans le cas ou on ferait du C++, je propose le meme nom que la classe</t>
   </si>
 </sst>
 </file>
@@ -251,7 +272,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +297,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -437,7 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -449,9 +482,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -538,12 +568,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -603,6 +627,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -901,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -921,542 +963,586 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="104.25" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="26.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="36" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="33" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="32" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="26.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="6"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="18"/>
-      <c r="B5" s="39" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="27"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:11" outlineLevel="1">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="29">
         <v>2000</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="48"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" outlineLevel="1">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>2</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>4</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45">
+      <c r="F9" s="41"/>
+      <c r="G9" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="42">
         <v>2</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="45" outlineLevel="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45">
+      <c r="F10" s="41"/>
+      <c r="G10" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="42">
         <v>1</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11" outlineLevel="1">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45" t="s">
+      <c r="F11" s="41"/>
+      <c r="G11" s="56" t="s">
         <v>15</v>
       </c>
+      <c r="H11" s="42" t="s">
+        <v>15</v>
+      </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:11" outlineLevel="1">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45" t="s">
+      <c r="F12" s="41"/>
+      <c r="G12" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="42" t="s">
         <v>15</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:11" outlineLevel="1">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45" t="s">
+      <c r="F13" s="41"/>
+      <c r="G13" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="42" t="s">
         <v>18</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:11" outlineLevel="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:11" outlineLevel="1">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44">
+      <c r="F15" s="41"/>
+      <c r="G15" s="42">
         <v>2</v>
       </c>
+      <c r="H15" s="41">
+        <v>2</v>
+      </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:11" outlineLevel="1">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44">
+      <c r="F16" s="41"/>
+      <c r="G16" s="42">
         <v>1</v>
       </c>
+      <c r="H16" s="41">
+        <v>1</v>
+      </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" outlineLevel="1">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44">
+      <c r="F17" s="41"/>
+      <c r="G17" s="42">
         <v>1</v>
       </c>
+      <c r="H17" s="41">
+        <v>1</v>
+      </c>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" outlineLevel="1">
-      <c r="A18" s="42"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="41"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="30" outlineLevel="1">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="45">
+      <c r="F19" s="41"/>
+      <c r="G19" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="42">
         <v>3</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" outlineLevel="1">
-      <c r="A20" s="42"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="30" outlineLevel="1">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="42"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="30" outlineLevel="1">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="52">
+      <c r="F22" s="43"/>
+      <c r="G22" s="49">
         <v>2</v>
       </c>
+      <c r="H22" s="49">
+        <v>2</v>
+      </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="24"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
     </row>
     <row r="26" spans="1:10" ht="60" outlineLevel="1">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="C26" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="20"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="53"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="50">
+        <v>2</v>
+      </c>
+      <c r="H26" s="50"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" outlineLevel="1">
-      <c r="A27" s="42"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="60" outlineLevel="1">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="45"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42">
+        <v>1</v>
+      </c>
+      <c r="H28" s="42"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" outlineLevel="1">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" outlineLevel="1">
-      <c r="A30" s="42"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="75" outlineLevel="1">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="54" t="s">
+      <c r="F31" s="41"/>
+      <c r="G31" s="42">
+        <v>1</v>
+      </c>
+      <c r="H31" s="51" t="s">
         <v>52</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="75" outlineLevel="1">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="45"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="42">
+        <v>1</v>
+      </c>
+      <c r="H32" s="42"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" outlineLevel="1">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="45"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="42">
+        <v>1</v>
+      </c>
+      <c r="H33" s="42"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="30" outlineLevel="1">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="55" t="s">
+      <c r="F34" s="41"/>
+      <c r="G34" s="42">
+        <v>1</v>
+      </c>
+      <c r="H34" s="52" t="s">
         <v>54</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="45" outlineLevel="1">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="9"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="45">
+      <c r="F35" s="41"/>
+      <c r="G35" s="42">
         <v>1</v>
       </c>
+      <c r="H35" s="42">
+        <v>1</v>
+      </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="30" outlineLevel="1">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="45"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="42">
+        <v>1</v>
+      </c>
+      <c r="H36" s="42"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" outlineLevel="1">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="45"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="58">
+        <v>1</v>
+      </c>
+      <c r="H37" s="42"/>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10">
@@ -1466,7 +1552,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+      <c r="G38" s="57"/>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:10">
@@ -1480,7 +1566,7 @@
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="39" t="s">
         <v>57</v>
       </c>
       <c r="B40" s="3"/>

--- a/trunk/doc/SondageCharte.xlsx
+++ b/trunk/doc/SondageCharte.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>Quentin</t>
   </si>
@@ -237,6 +237,21 @@
   </si>
   <si>
     <t>Dans le cas ou on ferait du C++, je propose le meme nom que la classe</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>c++</t>
+  </si>
+  <si>
+    <t>deb</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -628,6 +643,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -636,15 +660,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -943,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -963,16 +978,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="104.25" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -981,11 +996,11 @@
       <c r="A3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="12"/>
       <c r="F3" s="33" t="s">
         <v>0</v>
@@ -1058,7 +1073,9 @@
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="47"/>
+      <c r="F8" s="47" t="s">
+        <v>70</v>
+      </c>
       <c r="G8" s="48" t="s">
         <v>59</v>
       </c>
@@ -1077,8 +1094,10 @@
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="56" t="s">
+      <c r="F9" s="41">
+        <v>2</v>
+      </c>
+      <c r="G9" s="53" t="s">
         <v>60</v>
       </c>
       <c r="H9" s="42">
@@ -1098,8 +1117,10 @@
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="56" t="s">
+      <c r="F10" s="41">
+        <v>1</v>
+      </c>
+      <c r="G10" s="53" t="s">
         <v>61</v>
       </c>
       <c r="H10" s="42">
@@ -1119,8 +1140,10 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="56" t="s">
+      <c r="F11" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="53" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="42" t="s">
@@ -1140,8 +1163,10 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="56" t="s">
+      <c r="F12" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="53" t="s">
         <v>62</v>
       </c>
       <c r="H12" s="42" t="s">
@@ -1161,8 +1186,10 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="56" t="s">
+      <c r="F13" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="53" t="s">
         <v>19</v>
       </c>
       <c r="H13" s="42" t="s">
@@ -1189,7 +1216,9 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="41"/>
+      <c r="F15" s="41" t="s">
+        <v>70</v>
+      </c>
       <c r="G15" s="42">
         <v>2</v>
       </c>
@@ -1206,7 +1235,9 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="41"/>
+      <c r="F16" s="41" t="s">
+        <v>70</v>
+      </c>
       <c r="G16" s="42">
         <v>1</v>
       </c>
@@ -1223,7 +1254,9 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="41"/>
+      <c r="F17" s="41" t="s">
+        <v>70</v>
+      </c>
       <c r="G17" s="42">
         <v>1</v>
       </c>
@@ -1257,7 +1290,9 @@
         <v>25</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="41"/>
+      <c r="F19" s="41">
+        <v>3</v>
+      </c>
       <c r="G19" s="42" t="s">
         <v>63</v>
       </c>
@@ -1287,7 +1322,9 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="41"/>
+      <c r="F21" s="41" t="s">
+        <v>69</v>
+      </c>
       <c r="G21" s="42" t="s">
         <v>64</v>
       </c>
@@ -1306,7 +1343,9 @@
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="43"/>
+      <c r="F22" s="43">
+        <v>1</v>
+      </c>
       <c r="G22" s="49">
         <v>2</v>
       </c>
@@ -1539,7 +1578,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="3"/>
       <c r="F37" s="41"/>
-      <c r="G37" s="58">
+      <c r="G37" s="55">
         <v>1</v>
       </c>
       <c r="H37" s="42"/>
@@ -1552,7 +1591,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="57"/>
+      <c r="G38" s="54"/>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:10">

--- a/trunk/doc/SondageCharte.xlsx
+++ b/trunk/doc/SondageCharte.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t>Quentin</t>
   </si>
@@ -252,6 +252,15 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>osef</t>
+  </si>
+  <si>
+    <t>anglais</t>
+  </si>
+  <si>
+    <t>francais</t>
   </si>
 </sst>
 </file>
@@ -958,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1080,7 +1089,9 @@
         <v>59</v>
       </c>
       <c r="H8" s="48"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="1:11" outlineLevel="1">
       <c r="A9" s="39" t="s">
@@ -1103,7 +1114,9 @@
       <c r="H9" s="42">
         <v>2</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="45" outlineLevel="1">
       <c r="A10" s="39" t="s">
@@ -1126,7 +1139,9 @@
       <c r="H10" s="42">
         <v>1</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:11" outlineLevel="1">
       <c r="A11" s="39" t="s">
@@ -1149,7 +1164,9 @@
       <c r="H11" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:11" outlineLevel="1">
       <c r="A12" s="39" t="s">
@@ -1172,7 +1189,9 @@
       <c r="H12" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:11" outlineLevel="1">
       <c r="A13" s="39" t="s">
@@ -1195,7 +1214,9 @@
       <c r="H13" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:11" outlineLevel="1">
       <c r="A14" s="39"/>
@@ -1225,7 +1246,9 @@
       <c r="H15" s="41">
         <v>2</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:11" outlineLevel="1">
       <c r="A16" s="39" t="s">
@@ -1244,7 +1267,9 @@
       <c r="H16" s="41">
         <v>1</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:10" outlineLevel="1">
       <c r="A17" s="39" t="s">
@@ -1263,7 +1288,9 @@
       <c r="H17" s="41">
         <v>1</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:10" outlineLevel="1">
       <c r="A18" s="39"/>
@@ -1299,7 +1326,9 @@
       <c r="H19" s="42">
         <v>3</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:10" outlineLevel="1">
       <c r="A20" s="39"/>
@@ -1329,7 +1358,9 @@
         <v>64</v>
       </c>
       <c r="H21" s="42"/>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="30" outlineLevel="1">
       <c r="A22" s="40" t="s">
